--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2947186.98009081</v>
+        <v>-2947853.341766952</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,64 +1379,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>73.96029641293745</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>23.74993846779103</v>
+      </c>
+      <c r="T11" t="n">
+        <v>18.92346735507951</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46.6605662959453</v>
+      </c>
+      <c r="V11" t="n">
         <v>86.82170806664899</v>
       </c>
-      <c r="G11" t="n">
-        <v>86.82170806664899</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>37.05034583237524</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>86.82170806664899</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.42221463272915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,64 +1446,64 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.036068026875153</v>
+      </c>
+      <c r="R12" t="n">
         <v>86.82170806664899</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>11.45560918177125</v>
+        <v>76.24655864448394</v>
       </c>
       <c r="U12" t="n">
-        <v>86.82170806664899</v>
+        <v>33.73864095187857</v>
       </c>
       <c r="V12" t="n">
         <v>37.15992189271591</v>
@@ -1512,7 +1512,7 @@
         <v>63.21558455432526</v>
       </c>
       <c r="X12" t="n">
-        <v>31.56786579160168</v>
+        <v>13.82391541678427</v>
       </c>
       <c r="Y12" t="n">
         <v>19.89528711133929</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>83.57051687650763</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>86.82170806664899</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>39.42221463272924</v>
-      </c>
-      <c r="G14" t="n">
-        <v>86.82170806664899</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>37.05034583237521</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.749938467791</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.92346735507948</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.82170806664899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>70.82701748958803</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,46 +1698,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6.036068026875153</v>
+      </c>
+      <c r="R15" t="n">
         <v>86.82170806664899</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>11.45560918177122</v>
+        <v>76.24655864448407</v>
       </c>
       <c r="U15" t="n">
         <v>33.73864095187854</v>
@@ -1844,7 +1844,7 @@
         <v>39.5379879932637</v>
       </c>
       <c r="C17" t="n">
-        <v>15.65624499660919</v>
+        <v>15.65624499660901</v>
       </c>
       <c r="D17" t="n">
         <v>3.222907257657653</v>
@@ -1859,7 +1859,7 @@
         <v>84.27671840285255</v>
       </c>
       <c r="H17" t="n">
-        <v>12.34718069694395</v>
+        <v>12.34718069694393</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,23 +1920,23 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>86.82170806664899</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.85834769223185</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.036068026875153</v>
       </c>
       <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>86.82170806664899</v>
       </c>
-      <c r="S18" t="n">
+      <c r="W18" t="n">
         <v>86.82170806664899</v>
       </c>
-      <c r="T18" t="n">
-        <v>76.47256046510442</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>18.5781447459974</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>68.64999725544385</v>
       </c>
       <c r="G20" t="n">
-        <v>84.27671840285264</v>
+        <v>84.27671840285255</v>
       </c>
       <c r="H20" t="n">
         <v>12.34718069694395</v>
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.5781447459974</v>
+      </c>
+      <c r="I21" t="n">
         <v>86.82170806664899</v>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.85834769223185</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.036068026875153</v>
       </c>
       <c r="R21" t="n">
         <v>86.82170806664899</v>
       </c>
       <c r="S21" t="n">
-        <v>76.47256046510442</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>86.82170806664899</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>76.47256046510442</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>86.82170806664899</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>24.61421277287257</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.85834769223185</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>86.82170806664899</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>86.82170806664899</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2479324259056</v>
+        <v>161.2479324259055</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3661894292511</v>
+        <v>137.366189429251</v>
       </c>
       <c r="D26" t="n">
         <v>124.9328516902995</v>
@@ -2573,7 +2573,7 @@
         <v>134.0571251295858</v>
       </c>
       <c r="I26" t="n">
-        <v>27.70003690313385</v>
+        <v>27.70003690313379</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39962953854963</v>
+        <v>14.39962953854956</v>
       </c>
       <c r="T26" t="n">
-        <v>9.573158425838098</v>
+        <v>9.573158425838045</v>
       </c>
       <c r="U26" t="n">
-        <v>37.31025736670389</v>
+        <v>37.31025736670384</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0404756572243</v>
+        <v>108.0404756572242</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0571558738392</v>
+        <v>125.0571558738391</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9434063427784</v>
+        <v>146.9434063427783</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4462594665222</v>
+        <v>169.4462594665221</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.3910895647861</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6724707086533</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.85834769223185</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.036068026875153</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.10530025252984</v>
+        <v>2.105300252529783</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38833202263716</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80961296347451</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.8652756250838</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.47360648754281</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54497818209788</v>
+        <v>36.19675315892362</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50334865991103</v>
+        <v>22.50334865991097</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89886382935998</v>
+        <v>10.89886382935993</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81695046341613</v>
+        <v>75.81695046341608</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26970723252217</v>
+        <v>32.26970723252211</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47139913740759</v>
+        <v>77.47139913740753</v>
       </c>
       <c r="X28" t="n">
-        <v>9.080147456314791</v>
+        <v>9.080147456314734</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.301964862240681</v>
+        <v>4.301964862240624</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>137.3661894292511</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9328516902995</v>
+        <v>124.9328516902996</v>
       </c>
       <c r="E29" t="n">
         <v>158.6396041097084</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3599416880857</v>
+        <v>190.3599416880858</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9866628354944</v>
+        <v>205.9866628354945</v>
       </c>
       <c r="H29" t="n">
         <v>134.0571251295858</v>
       </c>
       <c r="I29" t="n">
-        <v>27.70003690313384</v>
+        <v>27.70003690313388</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39962953854963</v>
+        <v>14.39962953854966</v>
       </c>
       <c r="T29" t="n">
-        <v>9.573158425838098</v>
+        <v>9.573158425838127</v>
       </c>
       <c r="U29" t="n">
-        <v>37.31025736670389</v>
+        <v>37.31025736670392</v>
       </c>
       <c r="V29" t="n">
         <v>108.0404756572243</v>
@@ -2877,7 +2877,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>44.01027830113206</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.036068026875153</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.10530025252984</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38833202263716</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V30" t="n">
-        <v>118.8676954036098</v>
+        <v>27.80961296347454</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86527562508385</v>
+        <v>53.86527562508388</v>
       </c>
       <c r="X30" t="n">
-        <v>4.473606487542867</v>
+        <v>4.473606487542895</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54497818209791</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50334865991103</v>
+        <v>22.50334865991105</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89886382935998</v>
+        <v>10.89886382936001</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81695046341613</v>
+        <v>75.81695046341616</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26970723252217</v>
+        <v>32.26970723252219</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47139913740759</v>
+        <v>77.47139913740762</v>
       </c>
       <c r="X31" t="n">
-        <v>9.080147456314791</v>
+        <v>9.080147456314819</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.301964862240681</v>
+        <v>4.301964862240709</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2479324259056</v>
+        <v>161.2479324259055</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3661894292511</v>
+        <v>137.366189429251</v>
       </c>
       <c r="D32" t="n">
         <v>124.9328516902995</v>
@@ -3041,13 +3041,13 @@
         <v>190.3599416880857</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9866628354945</v>
+        <v>205.9866628354944</v>
       </c>
       <c r="H32" t="n">
         <v>134.0571251295858</v>
       </c>
       <c r="I32" t="n">
-        <v>27.70003690313385</v>
+        <v>27.70003690313379</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39962953854962</v>
+        <v>14.39962953854956</v>
       </c>
       <c r="T32" t="n">
-        <v>9.573158425838102</v>
+        <v>9.573158425838045</v>
       </c>
       <c r="U32" t="n">
-        <v>37.31025736670389</v>
+        <v>37.31025736670384</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0404756572243</v>
+        <v>108.0404756572242</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0571558738392</v>
+        <v>125.0571558738391</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9434063427784</v>
+        <v>146.9434063427783</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4462594665222</v>
+        <v>169.4462594665221</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7380757353064</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.036068026875153</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.10530025252984</v>
+        <v>2.105300252529783</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38833202263716</v>
+        <v>24.3883320226371</v>
       </c>
       <c r="V33" t="n">
-        <v>27.80961296347451</v>
+        <v>125.8357600966063</v>
       </c>
       <c r="W33" t="n">
-        <v>191.4464109607532</v>
+        <v>53.8652756250838</v>
       </c>
       <c r="X33" t="n">
-        <v>4.473606487542867</v>
+        <v>4.47360648754281</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54497818209788</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50334865991103</v>
+        <v>22.50334865991097</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89886382935998</v>
+        <v>10.89886382935993</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81695046341613</v>
+        <v>75.81695046341608</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26970723252217</v>
+        <v>32.26970723252211</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47139913740759</v>
+        <v>77.47139913740753</v>
       </c>
       <c r="X34" t="n">
-        <v>9.080147456314791</v>
+        <v>9.080147456314734</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.301964862240681</v>
+        <v>4.301964862240624</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3269,22 @@
         <v>113.2919666061231</v>
       </c>
       <c r="D35" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E35" t="n">
-        <v>134.5653812865804</v>
+        <v>134.5653812865805</v>
       </c>
       <c r="F35" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G35" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H35" t="n">
-        <v>109.9829023064578</v>
+        <v>109.9829023064579</v>
       </c>
       <c r="I35" t="n">
-        <v>3.625814080005824</v>
+        <v>3.62581408000591</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.23603454357587</v>
+        <v>13.23603454357595</v>
       </c>
       <c r="V35" t="n">
-        <v>83.96625283409625</v>
+        <v>83.96625283409634</v>
       </c>
       <c r="W35" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X35" t="n">
         <v>122.8691835196504</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>35.47216094542682</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.036068026875153</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276399745649</v>
+        <v>119.0012321792051</v>
       </c>
       <c r="V36" t="n">
-        <v>3.735390140346482</v>
+        <v>3.735390140346567</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>29.79105280195591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>51.74272764028812</v>
+        <v>51.7427276402882</v>
       </c>
       <c r="V37" t="n">
-        <v>8.19548440939414</v>
+        <v>8.195484409394226</v>
       </c>
       <c r="W37" t="n">
-        <v>53.39717631427956</v>
+        <v>53.39717631427965</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C38" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D38" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E38" t="n">
         <v>134.5653812865804</v>
       </c>
       <c r="F38" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G38" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H38" t="n">
-        <v>109.9829023064578</v>
+        <v>109.9829023064579</v>
       </c>
       <c r="I38" t="n">
-        <v>3.625814080005796</v>
+        <v>3.625814080005881</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.23603454357584</v>
+        <v>13.23603454357593</v>
       </c>
       <c r="V38" t="n">
-        <v>83.96625283409622</v>
+        <v>83.96625283409631</v>
       </c>
       <c r="W38" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X38" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="39">
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7380757353064</v>
+        <v>94.0699903820333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.036068026875153</v>
       </c>
       <c r="R39" t="n">
         <v>134.3144462547807</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>204.2777779348531</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0.3141091995091076</v>
+        <v>0.3141091995091929</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>3.735390140346539</v>
       </c>
       <c r="W39" t="n">
-        <v>29.7910528019558</v>
+        <v>29.79105280195589</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>51.74272764028809</v>
+        <v>51.74272764028817</v>
       </c>
       <c r="V40" t="n">
-        <v>8.195484409394112</v>
+        <v>8.195484409394197</v>
       </c>
       <c r="W40" t="n">
-        <v>53.39717631427953</v>
+        <v>53.39717631427962</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C41" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D41" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E41" t="n">
         <v>134.5653812865804</v>
       </c>
       <c r="F41" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G41" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H41" t="n">
-        <v>109.9829023064578</v>
+        <v>109.9829023064579</v>
       </c>
       <c r="I41" t="n">
-        <v>3.625814080005796</v>
+        <v>3.625814080005881</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.23603454357584</v>
+        <v>13.23603454357593</v>
       </c>
       <c r="V41" t="n">
-        <v>83.96625283409622</v>
+        <v>83.96625283409631</v>
       </c>
       <c r="W41" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X41" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="42">
@@ -3825,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7380757353064</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>33.10385471041374</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.7646523498341</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.3141091995091076</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>3.735390140346539</v>
       </c>
       <c r="W42" t="n">
-        <v>29.7910528019558</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>51.74272764028809</v>
+        <v>51.74272764028817</v>
       </c>
       <c r="V43" t="n">
-        <v>8.195484409394112</v>
+        <v>8.195484409394197</v>
       </c>
       <c r="W43" t="n">
-        <v>53.39717631427953</v>
+        <v>53.39717631427962</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C44" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D44" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E44" t="n">
         <v>134.5653812865804</v>
       </c>
       <c r="F44" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G44" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H44" t="n">
         <v>109.9829023064578</v>
       </c>
       <c r="I44" t="n">
-        <v>3.625814080005796</v>
+        <v>3.625814080005881</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.23603454357585</v>
+        <v>13.23603454357593</v>
       </c>
       <c r="V44" t="n">
-        <v>83.96625283409622</v>
+        <v>83.96625283409631</v>
       </c>
       <c r="W44" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X44" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>40.86628511244805</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7190582867001</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.036068026875153</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.3141091995091076</v>
+        <v>0.3141091995091929</v>
       </c>
       <c r="V45" t="n">
-        <v>3.735390140346453</v>
+        <v>3.735390140346539</v>
       </c>
       <c r="W45" t="n">
-        <v>29.7910528019558</v>
+        <v>29.79105280195589</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>51.74272764028809</v>
+        <v>51.74272764028817</v>
       </c>
       <c r="V46" t="n">
-        <v>8.195484409394112</v>
+        <v>8.195484409394197</v>
       </c>
       <c r="W46" t="n">
-        <v>53.39717631427953</v>
+        <v>53.39717631427962</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>219.7677184288403</v>
+        <v>169.3518017762273</v>
       </c>
       <c r="C11" t="n">
-        <v>219.7677184288403</v>
+        <v>81.65310675941018</v>
       </c>
       <c r="D11" t="n">
-        <v>219.7677184288403</v>
+        <v>81.65310675941018</v>
       </c>
       <c r="E11" t="n">
-        <v>219.7677184288403</v>
+        <v>81.65310675941018</v>
       </c>
       <c r="F11" t="n">
-        <v>132.0690234120231</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="G11" t="n">
-        <v>44.37032839520592</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="H11" t="n">
-        <v>44.37032839520592</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="I11" t="n">
         <v>6.94573664533192</v>
@@ -5048,16 +5048,16 @@
         <v>55.57291794545644</v>
       </c>
       <c r="M11" t="n">
-        <v>141.5264089314389</v>
+        <v>138.5559862811132</v>
       </c>
       <c r="N11" t="n">
-        <v>219.0097940518991</v>
+        <v>216.0393714015733</v>
       </c>
       <c r="O11" t="n">
-        <v>255.2657987032265</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="P11" t="n">
-        <v>338.0066232220121</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="Q11" t="n">
         <v>338.0066232220121</v>
@@ -5066,25 +5066,25 @@
         <v>347.286832266596</v>
       </c>
       <c r="S11" t="n">
-        <v>347.286832266596</v>
+        <v>323.2969954304434</v>
       </c>
       <c r="T11" t="n">
-        <v>347.286832266596</v>
+        <v>304.182381940464</v>
       </c>
       <c r="U11" t="n">
-        <v>347.286832266596</v>
+        <v>257.0504967930445</v>
       </c>
       <c r="V11" t="n">
-        <v>347.286832266596</v>
+        <v>169.3518017762273</v>
       </c>
       <c r="W11" t="n">
-        <v>259.5881372497788</v>
+        <v>169.3518017762273</v>
       </c>
       <c r="X11" t="n">
-        <v>259.5881372497788</v>
+        <v>169.3518017762273</v>
       </c>
       <c r="Y11" t="n">
-        <v>219.7677184288403</v>
+        <v>169.3518017762273</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5124,13 @@
         <v>45.95276840508905</v>
       </c>
       <c r="L12" t="n">
-        <v>131.9062593910716</v>
+        <v>45.95276840508905</v>
       </c>
       <c r="M12" t="n">
+        <v>90.52050120316859</v>
+      </c>
+      <c r="N12" t="n">
         <v>176.4739921891511</v>
-      </c>
-      <c r="N12" t="n">
-        <v>262.4274831751336</v>
       </c>
       <c r="O12" t="n">
         <v>262.4274831751336</v>
@@ -5139,31 +5139,31 @@
         <v>347.286832266596</v>
       </c>
       <c r="Q12" t="n">
-        <v>347.286832266596</v>
+        <v>341.189793855611</v>
       </c>
       <c r="R12" t="n">
-        <v>347.286832266596</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="S12" t="n">
-        <v>347.286832266596</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="T12" t="n">
-        <v>335.7155098607664</v>
+        <v>176.4743729352747</v>
       </c>
       <c r="U12" t="n">
-        <v>248.0168148439492</v>
+        <v>142.3949376303468</v>
       </c>
       <c r="V12" t="n">
-        <v>210.4815402048422</v>
+        <v>104.8596629912398</v>
       </c>
       <c r="W12" t="n">
-        <v>146.6274143923925</v>
+        <v>41.00553717879006</v>
       </c>
       <c r="X12" t="n">
-        <v>114.7406812695625</v>
+        <v>27.04198625274534</v>
       </c>
       <c r="Y12" t="n">
-        <v>94.64443166214909</v>
+        <v>6.94573664533192</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.94573664533192</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="C13" t="n">
-        <v>6.94573664533192</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="D13" t="n">
-        <v>64.66902192958779</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="E13" t="n">
-        <v>125.8637511619445</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="F13" t="n">
-        <v>125.8637511619445</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="G13" t="n">
-        <v>125.8637511619445</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="H13" t="n">
-        <v>125.8637511619445</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="I13" t="n">
-        <v>125.8637511619445</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="J13" t="n">
-        <v>125.8637511619445</v>
+        <v>32.55909421947297</v>
       </c>
       <c r="K13" t="n">
-        <v>125.8637511619445</v>
+        <v>118.5125852054555</v>
       </c>
       <c r="L13" t="n">
-        <v>211.817242147927</v>
+        <v>204.466076191438</v>
       </c>
       <c r="M13" t="n">
-        <v>297.7707331339095</v>
+        <v>290.4195671774205</v>
       </c>
       <c r="N13" t="n">
-        <v>297.7707331339095</v>
+        <v>307.7483064896372</v>
       </c>
       <c r="O13" t="n">
         <v>307.7483064896372</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>171.8894422329616</v>
+        <v>216.4836869236469</v>
       </c>
       <c r="C14" t="n">
-        <v>171.8894422329616</v>
+        <v>216.4836869236469</v>
       </c>
       <c r="D14" t="n">
-        <v>171.8894422329616</v>
+        <v>132.0690234120231</v>
       </c>
       <c r="E14" t="n">
-        <v>171.8894422329616</v>
+        <v>132.0690234120231</v>
       </c>
       <c r="F14" t="n">
         <v>132.0690234120231</v>
       </c>
       <c r="G14" t="n">
-        <v>44.37032839520587</v>
+        <v>132.0690234120231</v>
       </c>
       <c r="H14" t="n">
-        <v>44.37032839520587</v>
+        <v>44.37032839520589</v>
       </c>
       <c r="I14" t="n">
         <v>6.94573664533192</v>
@@ -5288,40 +5288,40 @@
         <v>138.5559862811132</v>
       </c>
       <c r="N14" t="n">
-        <v>224.5094772670957</v>
+        <v>216.0393714015733</v>
       </c>
       <c r="O14" t="n">
-        <v>261.3333412806135</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="P14" t="n">
-        <v>261.3333412806135</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="Q14" t="n">
-        <v>347.286832266596</v>
+        <v>338.0066232220121</v>
       </c>
       <c r="R14" t="n">
         <v>347.286832266596</v>
       </c>
       <c r="S14" t="n">
-        <v>347.286832266596</v>
+        <v>323.2969954304435</v>
       </c>
       <c r="T14" t="n">
-        <v>347.286832266596</v>
+        <v>304.1823819404641</v>
       </c>
       <c r="U14" t="n">
-        <v>347.286832266596</v>
+        <v>304.1823819404641</v>
       </c>
       <c r="V14" t="n">
-        <v>347.286832266596</v>
+        <v>304.1823819404641</v>
       </c>
       <c r="W14" t="n">
-        <v>347.286832266596</v>
+        <v>216.4836869236469</v>
       </c>
       <c r="X14" t="n">
-        <v>347.286832266596</v>
+        <v>216.4836869236469</v>
       </c>
       <c r="Y14" t="n">
-        <v>259.5881372497788</v>
+        <v>216.4836869236469</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.1868735708239</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="C15" t="n">
-        <v>94.64443166214909</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="D15" t="n">
-        <v>94.64443166214909</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="E15" t="n">
-        <v>94.64443166214909</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="F15" t="n">
-        <v>94.64443166214909</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="G15" t="n">
         <v>6.94573664533192</v>
@@ -5358,7 +5358,7 @@
         <v>6.94573664533192</v>
       </c>
       <c r="K15" t="n">
-        <v>6.94573664533192</v>
+        <v>45.95276840508905</v>
       </c>
       <c r="L15" t="n">
         <v>90.52050120316859</v>
@@ -5367,7 +5367,7 @@
         <v>176.4739921891511</v>
       </c>
       <c r="N15" t="n">
-        <v>262.4274831751336</v>
+        <v>176.4739921891511</v>
       </c>
       <c r="O15" t="n">
         <v>262.4274831751336</v>
@@ -5376,31 +5376,31 @@
         <v>347.286832266596</v>
       </c>
       <c r="Q15" t="n">
-        <v>347.286832266596</v>
+        <v>341.189793855611</v>
       </c>
       <c r="R15" t="n">
-        <v>347.286832266596</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="S15" t="n">
-        <v>347.286832266596</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="T15" t="n">
-        <v>335.7155098607665</v>
+        <v>176.4743729352745</v>
       </c>
       <c r="U15" t="n">
-        <v>301.6360745558387</v>
+        <v>142.3949376303467</v>
       </c>
       <c r="V15" t="n">
-        <v>264.1007999167317</v>
+        <v>104.8596629912397</v>
       </c>
       <c r="W15" t="n">
-        <v>200.246674104282</v>
+        <v>41.00553717879001</v>
       </c>
       <c r="X15" t="n">
-        <v>186.2831231782373</v>
+        <v>27.04198625274531</v>
       </c>
       <c r="Y15" t="n">
-        <v>166.1868735708239</v>
+        <v>6.94573664533192</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.559094219473</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="C16" t="n">
-        <v>69.22059408967988</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="D16" t="n">
-        <v>126.9438793739358</v>
+        <v>64.66902192958781</v>
       </c>
       <c r="E16" t="n">
-        <v>152.0899164171611</v>
+        <v>125.8637511619446</v>
       </c>
       <c r="F16" t="n">
-        <v>152.0899164171611</v>
+        <v>189.7802467981419</v>
       </c>
       <c r="G16" t="n">
-        <v>186.535677012714</v>
+        <v>224.2260073936948</v>
       </c>
       <c r="H16" t="n">
-        <v>186.535677012714</v>
+        <v>261.5621402814244</v>
       </c>
       <c r="I16" t="n">
-        <v>224.9483039773712</v>
+        <v>261.5621402814244</v>
       </c>
       <c r="J16" t="n">
         <v>307.7483064896371</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.261603601467</v>
+        <v>230.2616036014671</v>
       </c>
       <c r="C17" t="n">
-        <v>214.447214716003</v>
+        <v>214.4472147160034</v>
       </c>
       <c r="D17" t="n">
-        <v>211.1917528395812</v>
+        <v>211.1917528395816</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8890662970899</v>
+        <v>173.8890662970902</v>
       </c>
       <c r="F17" t="n">
-        <v>104.5456347259345</v>
+        <v>104.5456347259347</v>
       </c>
       <c r="G17" t="n">
-        <v>19.4176363392147</v>
+        <v>19.41763633921467</v>
       </c>
       <c r="H17" t="n">
         <v>6.94573664533192</v>
       </c>
       <c r="I17" t="n">
-        <v>9.911396798226235</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="J17" t="n">
-        <v>9.911396798226235</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="K17" t="n">
-        <v>9.911396798226235</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="L17" t="n">
-        <v>58.53857809835075</v>
+        <v>55.57291794545644</v>
       </c>
       <c r="M17" t="n">
-        <v>141.5216464340075</v>
+        <v>138.5559862811132</v>
       </c>
       <c r="N17" t="n">
-        <v>227.47513741999</v>
+        <v>216.0393714015733</v>
       </c>
       <c r="O17" t="n">
-        <v>263.7311420713174</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="P17" t="n">
-        <v>263.7311420713174</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="Q17" t="n">
-        <v>263.7311420713174</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="R17" t="n">
-        <v>263.7311420713174</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="S17" t="n">
-        <v>263.7311420713174</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="T17" t="n">
-        <v>263.7311420713174</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="U17" t="n">
-        <v>347.286832266596</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="V17" t="n">
         <v>347.286832266596</v>
       </c>
       <c r="W17" t="n">
-        <v>343.9058106088208</v>
+        <v>343.905810608821</v>
       </c>
       <c r="X17" t="n">
-        <v>318.4174652450467</v>
+        <v>318.4174652450468</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.1989652108242</v>
+        <v>270.1989652108243</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.94573664533192</v>
+        <v>147.0266010482419</v>
       </c>
       <c r="C18" t="n">
-        <v>6.94573664533192</v>
+        <v>147.0266010482419</v>
       </c>
       <c r="D18" t="n">
-        <v>6.94573664533192</v>
+        <v>147.0266010482419</v>
       </c>
       <c r="E18" t="n">
-        <v>6.94573664533192</v>
+        <v>147.0266010482419</v>
       </c>
       <c r="F18" t="n">
-        <v>6.94573664533192</v>
+        <v>147.0266010482419</v>
       </c>
       <c r="G18" t="n">
-        <v>6.94573664533192</v>
+        <v>59.3279060314247</v>
       </c>
       <c r="H18" t="n">
-        <v>6.94573664533192</v>
+        <v>59.3279060314247</v>
       </c>
       <c r="I18" t="n">
-        <v>6.94573664533192</v>
+        <v>59.3279060314247</v>
       </c>
       <c r="J18" t="n">
         <v>6.94573664533192</v>
       </c>
       <c r="K18" t="n">
-        <v>45.95276840508905</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="L18" t="n">
-        <v>131.9062593910716</v>
+        <v>92.89922763131442</v>
       </c>
       <c r="M18" t="n">
-        <v>176.4739921891511</v>
+        <v>178.8527186172969</v>
       </c>
       <c r="N18" t="n">
-        <v>176.4739921891511</v>
+        <v>264.8062096032794</v>
       </c>
       <c r="O18" t="n">
-        <v>262.4274831751336</v>
+        <v>347.286832266596</v>
       </c>
       <c r="P18" t="n">
         <v>347.286832266596</v>
       </c>
       <c r="Q18" t="n">
-        <v>347.286832266596</v>
+        <v>341.189793855611</v>
       </c>
       <c r="R18" t="n">
-        <v>259.5881372497788</v>
+        <v>341.189793855611</v>
       </c>
       <c r="S18" t="n">
-        <v>171.8894422329616</v>
+        <v>341.189793855611</v>
       </c>
       <c r="T18" t="n">
-        <v>94.64443166214909</v>
+        <v>341.189793855611</v>
       </c>
       <c r="U18" t="n">
-        <v>94.64443166214909</v>
+        <v>341.189793855611</v>
       </c>
       <c r="V18" t="n">
-        <v>94.64443166214909</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="W18" t="n">
-        <v>94.64443166214909</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="X18" t="n">
-        <v>94.64443166214909</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="Y18" t="n">
-        <v>94.64443166214909</v>
+        <v>147.0266010482419</v>
       </c>
     </row>
     <row r="19">
@@ -5729,16 +5729,16 @@
         <v>230.2616036014671</v>
       </c>
       <c r="C20" t="n">
-        <v>214.4472147160033</v>
+        <v>214.4472147160034</v>
       </c>
       <c r="D20" t="n">
-        <v>211.1917528395814</v>
+        <v>211.1917528395815</v>
       </c>
       <c r="E20" t="n">
         <v>173.88906629709</v>
       </c>
       <c r="F20" t="n">
-        <v>104.5456347259346</v>
+        <v>104.5456347259345</v>
       </c>
       <c r="G20" t="n">
         <v>19.4176363392147</v>
@@ -5747,52 +5747,52 @@
         <v>6.94573664533192</v>
       </c>
       <c r="I20" t="n">
-        <v>6.94573664533192</v>
+        <v>88.40441877136378</v>
       </c>
       <c r="J20" t="n">
-        <v>6.94573664533192</v>
+        <v>88.40441877136378</v>
       </c>
       <c r="K20" t="n">
-        <v>6.94573664533192</v>
+        <v>88.40441877136378</v>
       </c>
       <c r="L20" t="n">
-        <v>55.57291794545644</v>
+        <v>137.0316000714883</v>
       </c>
       <c r="M20" t="n">
-        <v>138.5559862811132</v>
+        <v>220.0146684071451</v>
       </c>
       <c r="N20" t="n">
-        <v>216.0393714015733</v>
+        <v>297.4980535276052</v>
       </c>
       <c r="O20" t="n">
-        <v>252.2953760529007</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="P20" t="n">
-        <v>252.2953760529007</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.2953760529007</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="R20" t="n">
-        <v>252.2953760529007</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="S20" t="n">
-        <v>252.2953760529007</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="T20" t="n">
-        <v>263.7311420713174</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="U20" t="n">
-        <v>347.286832266596</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="V20" t="n">
         <v>347.286832266596</v>
       </c>
       <c r="W20" t="n">
-        <v>343.9058106088211</v>
+        <v>343.905810608821</v>
       </c>
       <c r="X20" t="n">
-        <v>318.4174652450469</v>
+        <v>318.4174652450468</v>
       </c>
       <c r="Y20" t="n">
         <v>270.1989652108243</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.94573664533192</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="C21" t="n">
-        <v>6.94573664533192</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="D21" t="n">
-        <v>6.94573664533192</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="E21" t="n">
-        <v>6.94573664533192</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="F21" t="n">
-        <v>6.94573664533192</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="G21" t="n">
-        <v>6.94573664533192</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="H21" t="n">
-        <v>6.94573664533192</v>
+        <v>147.0266010482419</v>
       </c>
       <c r="I21" t="n">
-        <v>6.94573664533192</v>
+        <v>59.3279060314247</v>
       </c>
       <c r="J21" t="n">
         <v>6.94573664533192</v>
@@ -5835,46 +5835,46 @@
         <v>45.95276840508905</v>
       </c>
       <c r="L21" t="n">
-        <v>131.9062593910716</v>
+        <v>45.95276840508905</v>
       </c>
       <c r="M21" t="n">
-        <v>175.379850294631</v>
+        <v>90.52050120316859</v>
       </c>
       <c r="N21" t="n">
-        <v>261.3333412806135</v>
+        <v>176.4739921891511</v>
       </c>
       <c r="O21" t="n">
-        <v>347.286832266596</v>
+        <v>262.4274831751336</v>
       </c>
       <c r="P21" t="n">
         <v>347.286832266596</v>
       </c>
       <c r="Q21" t="n">
-        <v>347.286832266596</v>
+        <v>341.189793855611</v>
       </c>
       <c r="R21" t="n">
-        <v>259.5881372497788</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="S21" t="n">
-        <v>182.3431266789663</v>
+        <v>253.4910988387938</v>
       </c>
       <c r="T21" t="n">
-        <v>182.3431266789663</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="U21" t="n">
-        <v>182.3431266789663</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="V21" t="n">
-        <v>94.64443166214909</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="W21" t="n">
-        <v>94.64443166214909</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="X21" t="n">
-        <v>94.64443166214909</v>
+        <v>165.7924038219766</v>
       </c>
       <c r="Y21" t="n">
-        <v>94.64443166214909</v>
+        <v>165.7924038219766</v>
       </c>
     </row>
     <row r="22">
@@ -6005,22 +6005,22 @@
         <v>252.2953760529007</v>
       </c>
       <c r="P23" t="n">
-        <v>338.2488670388832</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="Q23" t="n">
-        <v>338.2488670388832</v>
+        <v>252.2953760529007</v>
       </c>
       <c r="R23" t="n">
-        <v>338.2488670388832</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="S23" t="n">
-        <v>338.2488670388832</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="T23" t="n">
-        <v>347.286832266596</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="U23" t="n">
-        <v>347.286832266596</v>
+        <v>333.7540581789326</v>
       </c>
       <c r="V23" t="n">
         <v>347.286832266596</v>
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>347.286832266596</v>
+      </c>
+      <c r="C24" t="n">
+        <v>347.286832266596</v>
+      </c>
+      <c r="D24" t="n">
+        <v>347.286832266596</v>
+      </c>
+      <c r="E24" t="n">
+        <v>259.5881372497788</v>
+      </c>
+      <c r="F24" t="n">
         <v>171.8894422329616</v>
       </c>
-      <c r="C24" t="n">
-        <v>94.64443166214909</v>
-      </c>
-      <c r="D24" t="n">
-        <v>94.64443166214909</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6.94573664533192</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6.94573664533192</v>
-      </c>
       <c r="G24" t="n">
-        <v>6.94573664533192</v>
+        <v>171.8894422329616</v>
       </c>
       <c r="H24" t="n">
-        <v>6.94573664533192</v>
+        <v>147.0266010482419</v>
       </c>
       <c r="I24" t="n">
-        <v>6.94573664533192</v>
+        <v>59.3279060314247</v>
       </c>
       <c r="J24" t="n">
         <v>6.94573664533192</v>
       </c>
       <c r="K24" t="n">
-        <v>45.95276840508905</v>
+        <v>6.94573664533192</v>
       </c>
       <c r="L24" t="n">
-        <v>90.52050120316859</v>
+        <v>92.89922763131442</v>
       </c>
       <c r="M24" t="n">
-        <v>176.4739921891511</v>
+        <v>175.379850294631</v>
       </c>
       <c r="N24" t="n">
-        <v>262.4274831751336</v>
+        <v>261.3333412806135</v>
       </c>
       <c r="O24" t="n">
-        <v>262.4274831751336</v>
+        <v>347.286832266596</v>
       </c>
       <c r="P24" t="n">
         <v>347.286832266596</v>
@@ -6099,19 +6099,19 @@
         <v>347.286832266596</v>
       </c>
       <c r="U24" t="n">
-        <v>259.5881372497788</v>
+        <v>347.286832266596</v>
       </c>
       <c r="V24" t="n">
-        <v>259.5881372497788</v>
+        <v>347.286832266596</v>
       </c>
       <c r="W24" t="n">
-        <v>259.5881372497788</v>
+        <v>347.286832266596</v>
       </c>
       <c r="X24" t="n">
-        <v>171.8894422329616</v>
+        <v>347.286832266596</v>
       </c>
       <c r="Y24" t="n">
-        <v>171.8894422329616</v>
+        <v>347.286832266596</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1025.028630475681</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2749037794676</v>
+        <v>886.274903779468</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0801040922964</v>
+        <v>760.0801040922968</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8380797390556</v>
+        <v>599.838079739056</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5553103571508</v>
+        <v>407.5553103571513</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4879741596817</v>
+        <v>199.4879741596821</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07673665505006</v>
+        <v>64.07673665505001</v>
       </c>
       <c r="I26" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="J26" t="n">
         <v>171.8193014227422</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4069368927941</v>
+        <v>377.4069368927942</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7450330653271</v>
+        <v>636.7450330653273</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4390162733923</v>
+        <v>930.4390162733926</v>
       </c>
       <c r="N26" t="n">
         <v>1218.633316266261</v>
@@ -6245,31 +6245,31 @@
         <v>1663.107239204595</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.845069967965</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S26" t="n">
         <v>1790.299989625996</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.630132630199</v>
+        <v>1780.6301326302</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.943003976963</v>
+        <v>1742.943003976964</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.811210383807</v>
+        <v>1633.811210383808</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.490850915283</v>
+        <v>1507.490850915284</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.063167740759</v>
+        <v>1359.06316774076</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.905329895787</v>
+        <v>1187.905329895788</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.6601052779448</v>
+        <v>215.4209603901525</v>
       </c>
       <c r="C27" t="n">
-        <v>209.6601052779448</v>
+        <v>215.4209603901525</v>
       </c>
       <c r="D27" t="n">
-        <v>209.6601052779448</v>
+        <v>215.4209603901525</v>
       </c>
       <c r="E27" t="n">
-        <v>36.0969013993593</v>
+        <v>215.4209603901525</v>
       </c>
       <c r="F27" t="n">
-        <v>36.0969013993593</v>
+        <v>215.4209603901525</v>
       </c>
       <c r="G27" t="n">
-        <v>36.0969013993593</v>
+        <v>215.4209603901525</v>
       </c>
       <c r="H27" t="n">
-        <v>36.0969013993593</v>
+        <v>88.47907078545209</v>
       </c>
       <c r="I27" t="n">
-        <v>36.0969013993593</v>
+        <v>88.47907078545209</v>
       </c>
       <c r="J27" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10393315911642</v>
+        <v>75.10393315911645</v>
       </c>
       <c r="L27" t="n">
         <v>193.8402434614216</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1545813717191</v>
+        <v>377.1545813717192</v>
       </c>
       <c r="N27" t="n">
-        <v>583.7405939045454</v>
+        <v>583.7405939045457</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9793531582073</v>
+        <v>716.9793531582076</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8387022496697</v>
+        <v>801.83870224967</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="R27" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="S27" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="T27" t="n">
-        <v>799.7121363380235</v>
+        <v>793.6150979270387</v>
       </c>
       <c r="U27" t="n">
-        <v>775.0774575272789</v>
+        <v>553.9912191648519</v>
       </c>
       <c r="V27" t="n">
-        <v>746.9869393823551</v>
+        <v>310.911501068486</v>
       </c>
       <c r="W27" t="n">
-        <v>477.5883701126464</v>
+        <v>256.5021317502196</v>
       </c>
       <c r="X27" t="n">
-        <v>258.0803757293428</v>
+        <v>251.9833373183581</v>
       </c>
       <c r="Y27" t="n">
-        <v>247.4288826161126</v>
+        <v>215.4209603901525</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="C28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="D28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="E28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="F28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="G28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="H28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="I28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="J28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="K28" t="n">
-        <v>96.41344166368938</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="L28" t="n">
-        <v>96.41344166368938</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="M28" t="n">
-        <v>96.41344166368938</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="N28" t="n">
-        <v>96.41344166368938</v>
+        <v>231.282075629099</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7861757843819</v>
+        <v>231.282075629099</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0555205723506</v>
+        <v>248.0555205723502</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0465672093607</v>
+        <v>237.0465672093604</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4637889634858</v>
+        <v>160.4637889634856</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8681250922513</v>
+        <v>127.8681250922511</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61418656961735</v>
+        <v>49.61418656961725</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44232045212766</v>
+        <v>40.44232045212762</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1025.028630475681</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2749037794676</v>
+        <v>886.2749037794682</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0801040922964</v>
+        <v>760.0801040922968</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8380797390556</v>
+        <v>599.838079739056</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5553103571508</v>
+        <v>407.5553103571511</v>
       </c>
       <c r="G29" t="n">
         <v>199.4879741596822</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07673665505004</v>
+        <v>64.0767366550501</v>
       </c>
       <c r="I29" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="J29" t="n">
-        <v>171.819301422742</v>
+        <v>171.8193014227422</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4069368927939</v>
+        <v>377.4069368927941</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7450330653268</v>
+        <v>636.7450330653271</v>
       </c>
       <c r="M29" t="n">
-        <v>930.439016273392</v>
+        <v>930.4390162733923</v>
       </c>
       <c r="N29" t="n">
         <v>1218.633316266261</v>
@@ -6479,28 +6479,28 @@
         <v>1465.600235789997</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.107239204595</v>
+        <v>1663.107239204596</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.845069967965</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S29" t="n">
         <v>1790.299989625996</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.630132630199</v>
+        <v>1780.6301326302</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.943003976963</v>
+        <v>1742.943003976964</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.811210383807</v>
+        <v>1633.811210383808</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.490850915283</v>
+        <v>1507.490850915284</v>
       </c>
       <c r="X29" t="n">
         <v>1359.06316774076</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>370.4402215169131</v>
+        <v>241.3318442051276</v>
       </c>
       <c r="C30" t="n">
-        <v>370.4402215169131</v>
+        <v>241.3318442051276</v>
       </c>
       <c r="D30" t="n">
-        <v>209.6601052779448</v>
+        <v>80.55172796615938</v>
       </c>
       <c r="E30" t="n">
-        <v>36.0969013993593</v>
+        <v>80.55172796615938</v>
       </c>
       <c r="F30" t="n">
-        <v>36.0969013993593</v>
+        <v>80.55172796615938</v>
       </c>
       <c r="G30" t="n">
-        <v>36.0969013993593</v>
+        <v>80.55172796615938</v>
       </c>
       <c r="H30" t="n">
-        <v>36.0969013993593</v>
+        <v>80.55172796615938</v>
       </c>
       <c r="I30" t="n">
-        <v>36.0969013993593</v>
+        <v>80.55172796615938</v>
       </c>
       <c r="J30" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10393315911642</v>
+        <v>75.10393315911645</v>
       </c>
       <c r="L30" t="n">
         <v>193.8402434614216</v>
       </c>
       <c r="M30" t="n">
-        <v>377.1545813717191</v>
+        <v>377.1545813717192</v>
       </c>
       <c r="N30" t="n">
-        <v>583.7405939045454</v>
+        <v>583.7405939045457</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9793531582073</v>
+        <v>716.9793531582076</v>
       </c>
       <c r="P30" t="n">
-        <v>801.8387022496697</v>
+        <v>801.83870224967</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="T30" t="n">
-        <v>799.7121363380235</v>
+        <v>578.6258979755964</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0774575272789</v>
+        <v>339.0020192134097</v>
       </c>
       <c r="V30" t="n">
-        <v>655.0090783317133</v>
+        <v>310.9115010684859</v>
       </c>
       <c r="W30" t="n">
-        <v>600.5997090134468</v>
+        <v>256.5021317502193</v>
       </c>
       <c r="X30" t="n">
-        <v>596.0809145815854</v>
+        <v>251.9833373183578</v>
       </c>
       <c r="Y30" t="n">
-        <v>370.4402215169131</v>
+        <v>241.3318442051276</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.0969013993593</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="C31" t="n">
-        <v>36.0969013993593</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="D31" t="n">
-        <v>36.0969013993593</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="E31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="F31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="G31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="H31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="I31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="J31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="K31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="L31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="M31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="N31" t="n">
-        <v>96.41344166368938</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7861757843819</v>
+        <v>70.96706481344933</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7861757843819</v>
+        <v>176.007431724297</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7861757843819</v>
+        <v>261.2272761573322</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843821</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0555205723506</v>
+        <v>248.0555205723507</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0465672093607</v>
+        <v>237.0465672093608</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4637889634858</v>
+        <v>160.4637889634859</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8681250922513</v>
+        <v>127.8681250922514</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61418656961735</v>
+        <v>49.61418656961742</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44232045212766</v>
+        <v>40.4423204521277</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.028630475681</v>
+        <v>1025.02863047568</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2749037794673</v>
+        <v>886.2749037794672</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0801040922961</v>
+        <v>760.080104092296</v>
       </c>
       <c r="E32" t="n">
         <v>599.8380797390553</v>
@@ -6692,22 +6692,22 @@
         <v>199.4879741596822</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07673665505006</v>
+        <v>64.07673665505001</v>
       </c>
       <c r="I32" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8193014227422</v>
+        <v>171.8193014227423</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4069368927941</v>
+        <v>377.4069368927942</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7450330653271</v>
+        <v>636.7450330653272</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4390162733923</v>
+        <v>930.4390162733926</v>
       </c>
       <c r="N32" t="n">
         <v>1218.633316266261</v>
@@ -6716,13 +6716,13 @@
         <v>1465.600235789997</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.107239204595</v>
+        <v>1663.107239204596</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.845069967965</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S32" t="n">
         <v>1790.299989625996</v>
@@ -6737,7 +6737,7 @@
         <v>1633.811210383807</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.490850915283</v>
+        <v>1507.490850915282</v>
       </c>
       <c r="X32" t="n">
         <v>1359.063167740759</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>359.9005858186584</v>
+        <v>357.3047339210834</v>
       </c>
       <c r="C33" t="n">
-        <v>359.9005858186584</v>
+        <v>357.3047339210834</v>
       </c>
       <c r="D33" t="n">
-        <v>359.9005858186584</v>
+        <v>196.5246176821152</v>
       </c>
       <c r="E33" t="n">
-        <v>186.3373819400728</v>
+        <v>196.5246176821152</v>
       </c>
       <c r="F33" t="n">
-        <v>186.3373819400728</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="G33" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="H33" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="I33" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="J33" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10393315911642</v>
+        <v>75.10393315911645</v>
       </c>
       <c r="L33" t="n">
         <v>193.8402434614216</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1545813717191</v>
+        <v>377.1545813717192</v>
       </c>
       <c r="N33" t="n">
-        <v>583.7405939045454</v>
+        <v>583.7405939045457</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9793531582073</v>
+        <v>716.9793531582076</v>
       </c>
       <c r="P33" t="n">
-        <v>801.8387022496697</v>
+        <v>801.83870224967</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="R33" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8387022496697</v>
+        <v>795.741663838685</v>
       </c>
       <c r="T33" t="n">
-        <v>799.7121363380235</v>
+        <v>793.6150979270387</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0774575272789</v>
+        <v>768.9804191162942</v>
       </c>
       <c r="V33" t="n">
-        <v>746.9869393823551</v>
+        <v>641.8735907358838</v>
       </c>
       <c r="W33" t="n">
-        <v>553.6067262906852</v>
+        <v>587.4642214176173</v>
       </c>
       <c r="X33" t="n">
-        <v>549.0879318588237</v>
+        <v>582.9454269857558</v>
       </c>
       <c r="Y33" t="n">
-        <v>538.4364387455935</v>
+        <v>357.3047339210834</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
       <c r="C34" t="n">
-        <v>36.0969013993593</v>
+        <v>82.0152071095152</v>
       </c>
       <c r="D34" t="n">
-        <v>36.0969013993593</v>
+        <v>148.9952982337201</v>
       </c>
       <c r="E34" t="n">
-        <v>36.0969013993593</v>
+        <v>148.9952982337201</v>
       </c>
       <c r="F34" t="n">
-        <v>36.0969013993593</v>
+        <v>148.9952982337201</v>
       </c>
       <c r="G34" t="n">
-        <v>36.0969013993593</v>
+        <v>148.9952982337201</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68984012703794</v>
+        <v>195.5882369613988</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3592729316441</v>
+        <v>243.257669766005</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3592729316441</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="K34" t="n">
-        <v>130.3592729316441</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="L34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7861757843819</v>
+        <v>270.7861757843815</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0555205723506</v>
+        <v>248.0555205723502</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0465672093607</v>
+        <v>237.0465672093604</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4637889634858</v>
+        <v>160.4637889634856</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8681250922513</v>
+        <v>127.8681250922511</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61418656961735</v>
+        <v>49.61418656961725</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44232045212766</v>
+        <v>40.44232045212762</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.0969013993593</v>
+        <v>36.09690139935931</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>847.8611162930804</v>
       </c>
       <c r="C35" t="n">
-        <v>733.4247863879054</v>
+        <v>733.4247863879053</v>
       </c>
       <c r="D35" t="n">
-        <v>631.5473834917726</v>
+        <v>631.5473834917724</v>
       </c>
       <c r="E35" t="n">
-        <v>495.6227559295702</v>
+        <v>495.6227559295699</v>
       </c>
       <c r="F35" t="n">
-        <v>327.6573833387038</v>
+        <v>327.6573833387034</v>
       </c>
       <c r="G35" t="n">
-        <v>143.9074439322735</v>
+        <v>143.9074439322726</v>
       </c>
       <c r="H35" t="n">
-        <v>32.81360321867972</v>
+        <v>32.81360321867983</v>
       </c>
       <c r="I35" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J35" t="n">
-        <v>29.15116475402738</v>
+        <v>188.707045372307</v>
       </c>
       <c r="K35" t="n">
-        <v>258.572280818976</v>
+        <v>188.707045372307</v>
       </c>
       <c r="L35" t="n">
-        <v>541.7438575864057</v>
+        <v>237.3342266724315</v>
       </c>
       <c r="M35" t="n">
-        <v>859.2713213893677</v>
+        <v>554.8616904753933</v>
       </c>
       <c r="N35" t="n">
-        <v>1171.299101977133</v>
+        <v>752.0786605150295</v>
       </c>
       <c r="O35" t="n">
-        <v>1207.55510662846</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P35" t="n">
-        <v>1428.895590637956</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q35" t="n">
-        <v>1447.980390349636</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R35" t="n">
-        <v>1447.980390349636</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S35" t="n">
-        <v>1457.558237701369</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T35" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U35" t="n">
         <v>1444.188505839171</v>
       </c>
       <c r="V35" t="n">
-        <v>1359.374109037053</v>
+        <v>1359.374109037054</v>
       </c>
       <c r="W35" t="n">
-        <v>1257.371146359567</v>
+        <v>1257.371146359568</v>
       </c>
       <c r="X35" t="n">
         <v>1133.260859976082</v>
       </c>
       <c r="Y35" t="n">
-        <v>986.4204189221485</v>
+        <v>986.4204189221488</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64.98163035546861</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="C36" t="n">
-        <v>64.98163035546861</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="D36" t="n">
-        <v>64.98163035546861</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="E36" t="n">
-        <v>64.98163035546861</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="F36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K36" t="n">
-        <v>68.1581965137845</v>
+        <v>68.15819651378453</v>
       </c>
       <c r="L36" t="n">
-        <v>186.8945068160896</v>
+        <v>186.8945068160897</v>
       </c>
       <c r="M36" t="n">
         <v>370.2088447263873</v>
@@ -7035,31 +7035,31 @@
         <v>794.8929656043379</v>
       </c>
       <c r="Q36" t="n">
-        <v>794.8929656043379</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="R36" t="n">
-        <v>794.8929656043379</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="S36" t="n">
-        <v>794.8929656043379</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="T36" t="n">
-        <v>577.7771997412494</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="U36" t="n">
-        <v>338.1533209790626</v>
+        <v>668.592662365873</v>
       </c>
       <c r="V36" t="n">
-        <v>334.3801996251773</v>
+        <v>664.8195410119876</v>
       </c>
       <c r="W36" t="n">
-        <v>64.98163035546861</v>
+        <v>634.7275684847593</v>
       </c>
       <c r="X36" t="n">
-        <v>64.98163035546861</v>
+        <v>415.2195741014557</v>
       </c>
       <c r="Y36" t="n">
-        <v>64.98163035546861</v>
+        <v>189.5788810367833</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="C37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="D37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="E37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="F37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J37" t="n">
-        <v>29.15116475402738</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="K37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="L37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="M37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="N37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="O37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="P37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="Q37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="R37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U37" t="n">
-        <v>91.365973565819</v>
+        <v>91.36597356581919</v>
       </c>
       <c r="V37" t="n">
-        <v>83.0877064856229</v>
+        <v>83.087706485623</v>
       </c>
       <c r="W37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="X37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>847.8611162930808</v>
+        <v>847.8611162930814</v>
       </c>
       <c r="C38" t="n">
-        <v>733.4247863879061</v>
+        <v>733.4247863879066</v>
       </c>
       <c r="D38" t="n">
-        <v>631.5473834917733</v>
+        <v>631.5473834917734</v>
       </c>
       <c r="E38" t="n">
-        <v>495.622755929571</v>
+        <v>495.6227559295708</v>
       </c>
       <c r="F38" t="n">
-        <v>327.6573833387049</v>
+        <v>327.6573833387043</v>
       </c>
       <c r="G38" t="n">
-        <v>143.9074439322734</v>
+        <v>143.9074439322736</v>
       </c>
       <c r="H38" t="n">
-        <v>32.8136032186797</v>
+        <v>32.8136032186798</v>
       </c>
       <c r="I38" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J38" t="n">
-        <v>188.7070453723071</v>
+        <v>188.707045372307</v>
       </c>
       <c r="K38" t="n">
-        <v>418.1281614372557</v>
+        <v>418.1281614372556</v>
       </c>
       <c r="L38" t="n">
-        <v>701.2997382046855</v>
+        <v>466.7553427373801</v>
       </c>
       <c r="M38" t="n">
-        <v>938.3062548834923</v>
+        <v>674.5952753945694</v>
       </c>
       <c r="N38" t="n">
-        <v>1250.334035471258</v>
+        <v>752.0786605150295</v>
       </c>
       <c r="O38" t="n">
-        <v>1286.590040122585</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P38" t="n">
-        <v>1286.590040122585</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q38" t="n">
-        <v>1433.624336596319</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R38" t="n">
-        <v>1433.624336596319</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S38" t="n">
-        <v>1443.202183948052</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T38" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U38" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V38" t="n">
         <v>1359.374109037054</v>
       </c>
       <c r="W38" t="n">
-        <v>1257.371146359568</v>
+        <v>1257.371146359569</v>
       </c>
       <c r="X38" t="n">
         <v>1133.260859976083</v>
       </c>
       <c r="Y38" t="n">
-        <v>986.4204189221491</v>
+        <v>986.4204189221497</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>179.3916452947409</v>
+        <v>618.9423934594213</v>
       </c>
       <c r="C39" t="n">
-        <v>179.3916452947409</v>
+        <v>618.9423934594213</v>
       </c>
       <c r="D39" t="n">
-        <v>179.3916452947409</v>
+        <v>458.162277220453</v>
       </c>
       <c r="E39" t="n">
-        <v>179.3916452947409</v>
+        <v>284.5990733418674</v>
       </c>
       <c r="F39" t="n">
-        <v>179.3916452947409</v>
+        <v>124.1713570591115</v>
       </c>
       <c r="G39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K39" t="n">
-        <v>68.1581965137845</v>
+        <v>68.15819651378453</v>
       </c>
       <c r="L39" t="n">
-        <v>186.8945068160896</v>
+        <v>186.8945068160897</v>
       </c>
       <c r="M39" t="n">
         <v>370.2088447263873</v>
@@ -7272,31 +7272,31 @@
         <v>794.8929656043379</v>
       </c>
       <c r="Q39" t="n">
-        <v>794.8929656043379</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="R39" t="n">
-        <v>659.2218077712261</v>
+        <v>653.1247693602411</v>
       </c>
       <c r="S39" t="n">
-        <v>659.2218077712261</v>
+        <v>653.1247693602411</v>
       </c>
       <c r="T39" t="n">
-        <v>452.8806179380411</v>
+        <v>653.1247693602411</v>
       </c>
       <c r="U39" t="n">
-        <v>452.5633359183349</v>
+        <v>652.8074873405349</v>
       </c>
       <c r="V39" t="n">
-        <v>209.483617821969</v>
+        <v>649.0343659866495</v>
       </c>
       <c r="W39" t="n">
-        <v>179.3916452947409</v>
+        <v>618.9423934594213</v>
       </c>
       <c r="X39" t="n">
-        <v>179.3916452947409</v>
+        <v>618.9423934594213</v>
       </c>
       <c r="Y39" t="n">
-        <v>179.3916452947409</v>
+        <v>618.9423934594213</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="C40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="D40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="E40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="F40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J40" t="n">
-        <v>110.2389747987087</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2389747987087</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="L40" t="n">
-        <v>110.2389747987087</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="M40" t="n">
-        <v>110.2389747987087</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="N40" t="n">
-        <v>110.2389747987087</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="O40" t="n">
-        <v>110.2389747987087</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="P40" t="n">
-        <v>110.2389747987087</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.2389747987087</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="R40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T40" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U40" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581913</v>
       </c>
       <c r="V40" t="n">
-        <v>83.08770648562287</v>
+        <v>83.08770648562297</v>
       </c>
       <c r="W40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="X40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>847.8611162930802</v>
+        <v>847.8611162930808</v>
       </c>
       <c r="C41" t="n">
-        <v>733.4247863879053</v>
+        <v>733.4247863879057</v>
       </c>
       <c r="D41" t="n">
-        <v>631.5473834917725</v>
+        <v>631.5473834917727</v>
       </c>
       <c r="E41" t="n">
-        <v>495.6227559295701</v>
+        <v>495.6227559295703</v>
       </c>
       <c r="F41" t="n">
-        <v>327.6573833387038</v>
+        <v>327.6573833387039</v>
       </c>
       <c r="G41" t="n">
         <v>143.9074439322731</v>
       </c>
       <c r="H41" t="n">
-        <v>32.8136032186797</v>
+        <v>32.8136032186798</v>
       </c>
       <c r="I41" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J41" t="n">
-        <v>188.7070453723071</v>
+        <v>188.707045372307</v>
       </c>
       <c r="K41" t="n">
-        <v>418.1281614372557</v>
+        <v>188.707045372307</v>
       </c>
       <c r="L41" t="n">
-        <v>466.7553427373802</v>
+        <v>237.3342266724316</v>
       </c>
       <c r="M41" t="n">
-        <v>784.2828065403421</v>
+        <v>554.8616904753935</v>
       </c>
       <c r="N41" t="n">
-        <v>1096.310587128107</v>
+        <v>752.0786605150295</v>
       </c>
       <c r="O41" t="n">
-        <v>1212.283852586824</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P41" t="n">
-        <v>1433.624336596319</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q41" t="n">
-        <v>1433.624336596319</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R41" t="n">
-        <v>1433.624336596319</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S41" t="n">
-        <v>1443.202183948052</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T41" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U41" t="n">
-        <v>1444.18850583917</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V41" t="n">
-        <v>1359.374109037053</v>
+        <v>1359.374109037054</v>
       </c>
       <c r="W41" t="n">
-        <v>1257.371146359567</v>
+        <v>1257.371146359568</v>
       </c>
       <c r="X41" t="n">
-        <v>1133.260859976082</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y41" t="n">
-        <v>986.4204189221484</v>
+        <v>986.4204189221492</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>352.9548491733265</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="C42" t="n">
-        <v>352.9548491733265</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="D42" t="n">
-        <v>352.9548491733265</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="E42" t="n">
-        <v>179.3916452947409</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="F42" t="n">
-        <v>179.3916452947409</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="G42" t="n">
-        <v>29.15116475402738</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="H42" t="n">
-        <v>29.15116475402738</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="I42" t="n">
-        <v>29.15116475402738</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="J42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K42" t="n">
-        <v>68.1581965137845</v>
+        <v>68.15819651378453</v>
       </c>
       <c r="L42" t="n">
-        <v>186.8945068160896</v>
+        <v>186.8945068160897</v>
       </c>
       <c r="M42" t="n">
         <v>370.2088447263873</v>
@@ -7515,25 +7515,25 @@
         <v>794.8929656043379</v>
       </c>
       <c r="S42" t="n">
-        <v>626.4438218166266</v>
+        <v>794.8929656043379</v>
       </c>
       <c r="T42" t="n">
-        <v>626.4438218166266</v>
+        <v>794.8929656043379</v>
       </c>
       <c r="U42" t="n">
-        <v>626.1265397969205</v>
+        <v>555.2690868421511</v>
       </c>
       <c r="V42" t="n">
-        <v>383.0468217005546</v>
+        <v>551.4959654882657</v>
       </c>
       <c r="W42" t="n">
-        <v>352.9548491733265</v>
+        <v>282.097396218557</v>
       </c>
       <c r="X42" t="n">
-        <v>352.9548491733265</v>
+        <v>62.5894018352534</v>
       </c>
       <c r="Y42" t="n">
-        <v>352.9548491733265</v>
+        <v>62.5894018352534</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="C43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="D43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="E43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="F43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="G43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="H43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="I43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="J43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="K43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="L43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="M43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="N43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="O43" t="n">
-        <v>29.15116475402738</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="P43" t="n">
-        <v>143.6313550206554</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.6313550206554</v>
+        <v>95.64020397329401</v>
       </c>
       <c r="R43" t="n">
-        <v>143.6313550206554</v>
+        <v>129.0325841952406</v>
       </c>
       <c r="S43" t="n">
-        <v>143.6313550206554</v>
+        <v>130.5877496168254</v>
       </c>
       <c r="T43" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U43" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581913</v>
       </c>
       <c r="V43" t="n">
-        <v>83.08770648562287</v>
+        <v>83.08770648562297</v>
       </c>
       <c r="W43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="X43" t="n">
-        <v>29.15116475402738</v>
+        <v>43.99529936717244</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.15116475402738</v>
+        <v>63.56983474845086</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.8611162930806</v>
+        <v>847.861116293081</v>
       </c>
       <c r="C44" t="n">
-        <v>733.4247863879059</v>
+        <v>733.4247863879064</v>
       </c>
       <c r="D44" t="n">
-        <v>631.547383491773</v>
+        <v>631.5473834917732</v>
       </c>
       <c r="E44" t="n">
-        <v>495.6227559295704</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F44" t="n">
-        <v>327.657383338704</v>
+        <v>327.6573833387041</v>
       </c>
       <c r="G44" t="n">
         <v>143.9074439322733</v>
       </c>
       <c r="H44" t="n">
-        <v>32.8136032186797</v>
+        <v>32.8136032186798</v>
       </c>
       <c r="I44" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J44" t="n">
-        <v>188.7070453723071</v>
+        <v>188.707045372307</v>
       </c>
       <c r="K44" t="n">
-        <v>418.1281614372557</v>
+        <v>418.1281614372556</v>
       </c>
       <c r="L44" t="n">
-        <v>701.2997382046855</v>
+        <v>466.7553427373801</v>
       </c>
       <c r="M44" t="n">
-        <v>887.9339684527808</v>
+        <v>674.5952753945694</v>
       </c>
       <c r="N44" t="n">
-        <v>965.417353573241</v>
+        <v>752.0786605150295</v>
       </c>
       <c r="O44" t="n">
-        <v>1236.217753691874</v>
+        <v>1022.879060633662</v>
       </c>
       <c r="P44" t="n">
-        <v>1457.558237701369</v>
+        <v>1244.219544643157</v>
       </c>
       <c r="Q44" t="n">
-        <v>1457.558237701369</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R44" t="n">
-        <v>1457.558237701369</v>
+        <v>1433.62433659632</v>
       </c>
       <c r="S44" t="n">
-        <v>1457.558237701369</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T44" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U44" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V44" t="n">
-        <v>1359.374109037053</v>
+        <v>1359.374109037054</v>
       </c>
       <c r="W44" t="n">
         <v>1257.371146359568</v>
       </c>
       <c r="X44" t="n">
-        <v>1133.260859976082</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y44" t="n">
-        <v>986.4204189221489</v>
+        <v>986.4204189221492</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>315.5619022555423</v>
+        <v>713.3344754213734</v>
       </c>
       <c r="C45" t="n">
-        <v>315.5619022555423</v>
+        <v>523.9222011543371</v>
       </c>
       <c r="D45" t="n">
-        <v>315.5619022555423</v>
+        <v>363.1420849153689</v>
       </c>
       <c r="E45" t="n">
-        <v>141.9986983769568</v>
+        <v>189.5788810367833</v>
       </c>
       <c r="F45" t="n">
-        <v>141.9986983769568</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="G45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="H45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="I45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="J45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="K45" t="n">
-        <v>68.1581965137845</v>
+        <v>68.15819651378453</v>
       </c>
       <c r="L45" t="n">
-        <v>186.8945068160896</v>
+        <v>186.8945068160897</v>
       </c>
       <c r="M45" t="n">
         <v>370.2088447263873</v>
@@ -7746,31 +7746,31 @@
         <v>794.8929656043379</v>
       </c>
       <c r="Q45" t="n">
-        <v>794.8929656043379</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="R45" t="n">
-        <v>794.8929656043379</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="S45" t="n">
-        <v>794.8929656043379</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="T45" t="n">
-        <v>794.8929656043379</v>
+        <v>788.7959271933529</v>
       </c>
       <c r="U45" t="n">
-        <v>794.5756835846317</v>
+        <v>788.4786451736467</v>
       </c>
       <c r="V45" t="n">
-        <v>790.8025622307464</v>
+        <v>784.7055238197613</v>
       </c>
       <c r="W45" t="n">
-        <v>760.7105897035183</v>
+        <v>754.6135512925331</v>
       </c>
       <c r="X45" t="n">
-        <v>541.2025953202146</v>
+        <v>754.6135512925331</v>
       </c>
       <c r="Y45" t="n">
-        <v>315.5619022555423</v>
+        <v>754.6135512925331</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="C46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="D46" t="n">
-        <v>119.964736473129</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="E46" t="n">
-        <v>119.964736473129</v>
+        <v>123.4361804212298</v>
       </c>
       <c r="F46" t="n">
-        <v>119.964736473129</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="G46" t="n">
-        <v>119.964736473129</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="H46" t="n">
-        <v>119.964736473129</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="I46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="J46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="K46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="L46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="M46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="N46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="P46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="R46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U46" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581913</v>
       </c>
       <c r="V46" t="n">
-        <v>83.08770648562287</v>
+        <v>83.08770648562297</v>
       </c>
       <c r="W46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="X46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.15116475402739</v>
       </c>
     </row>
   </sheetData>
@@ -8772,7 +8772,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>207.1905848512652</v>
+        <v>120.3688767846161</v>
       </c>
       <c r="M12" t="n">
         <v>161.6287953380625</v>
@@ -8781,7 +8781,7 @@
         <v>188.7628267091238</v>
       </c>
       <c r="O12" t="n">
-        <v>120.6381775845915</v>
+        <v>207.4598856512405</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9724314025781</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>204.7878308834411</v>
+        <v>165.3867887018682</v>
       </c>
       <c r="M15" t="n">
         <v>203.4325914874595</v>
       </c>
       <c r="N15" t="n">
-        <v>188.7628267091238</v>
+        <v>101.9411186424748</v>
       </c>
       <c r="O15" t="n">
-        <v>120.6381775845915</v>
+        <v>207.4598856512405</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>131.9724314025781</v>
       </c>
       <c r="L18" t="n">
         <v>207.1905848512652</v>
       </c>
       <c r="M18" t="n">
-        <v>161.6287953380625</v>
+        <v>203.4325914874594</v>
       </c>
       <c r="N18" t="n">
-        <v>101.9411186424748</v>
+        <v>188.7628267091238</v>
       </c>
       <c r="O18" t="n">
-        <v>207.4598856512405</v>
+        <v>203.9519378505678</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6473598448789</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,10 +9483,10 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>207.1905848512652</v>
+        <v>120.3688767846161</v>
       </c>
       <c r="M21" t="n">
-        <v>160.5236015052139</v>
+        <v>161.6287953380625</v>
       </c>
       <c r="N21" t="n">
         <v>188.7628267091238</v>
@@ -9495,7 +9495,7 @@
         <v>207.4598856512405</v>
       </c>
       <c r="P21" t="n">
-        <v>120.6473598448789</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>131.9724314025781</v>
       </c>
       <c r="L24" t="n">
-        <v>165.3867887018682</v>
+        <v>207.1905848512652</v>
       </c>
       <c r="M24" t="n">
-        <v>203.4325914874595</v>
+        <v>199.9246436867867</v>
       </c>
       <c r="N24" t="n">
         <v>188.7628267091238</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6381775845915</v>
+        <v>207.4598856512405</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.6473598448789</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23258,7 +23258,7 @@
         <v>170.598241355147</v>
       </c>
       <c r="C11" t="n">
-        <v>146.7164983584925</v>
+        <v>59.89479029184349</v>
       </c>
       <c r="D11" t="n">
         <v>134.283160619541</v>
@@ -23267,16 +23267,16 @@
         <v>167.9899130389498</v>
       </c>
       <c r="F11" t="n">
-        <v>112.8885425506782</v>
+        <v>125.7499542043897</v>
       </c>
       <c r="G11" t="n">
-        <v>128.5152636980868</v>
+        <v>215.3369717647358</v>
       </c>
       <c r="H11" t="n">
         <v>143.4074340588272</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>37.05034583237524</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.74993846779103</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>18.92346735507951</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.66056629594533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>117.3907845864657</v>
+        <v>30.56907651981669</v>
       </c>
       <c r="W11" t="n">
-        <v>47.58575673643156</v>
+        <v>134.4074648030806</v>
       </c>
       <c r="X11" t="n">
         <v>156.2937152720198</v>
       </c>
       <c r="Y11" t="n">
-        <v>139.3743537630344</v>
+        <v>178.7965683957636</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.77653328849797</v>
+        <v>170.598241355147</v>
       </c>
       <c r="C14" t="n">
         <v>146.7164983584925</v>
       </c>
       <c r="D14" t="n">
-        <v>134.2831606195409</v>
+        <v>50.7126437430333</v>
       </c>
       <c r="E14" t="n">
         <v>167.9899130389498</v>
       </c>
       <c r="F14" t="n">
-        <v>160.2880359845979</v>
+        <v>199.7102506173271</v>
       </c>
       <c r="G14" t="n">
-        <v>128.5152636980868</v>
+        <v>215.3369717647358</v>
       </c>
       <c r="H14" t="n">
-        <v>143.4074340588272</v>
+        <v>56.5857259921782</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.749938467791</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.92346735507948</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.66056629594527</v>
+        <v>46.66056629594528</v>
       </c>
       <c r="V14" t="n">
         <v>117.3907845864657</v>
       </c>
       <c r="W14" t="n">
-        <v>134.4074648030805</v>
+        <v>47.58575673643153</v>
       </c>
       <c r="X14" t="n">
         <v>156.2937152720198</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.97486032911453</v>
+        <v>178.7965683957635</v>
       </c>
     </row>
     <row r="15">
@@ -26317,7 +26317,7 @@
         <v>176386.399035292</v>
       </c>
       <c r="D2" t="n">
-        <v>176386.399035292</v>
+        <v>176386.3990352919</v>
       </c>
       <c r="E2" t="n">
         <v>151998.0178040957</v>
@@ -26335,25 +26335,25 @@
         <v>176743.709771707</v>
       </c>
       <c r="J2" t="n">
-        <v>176743.7097717068</v>
+        <v>176743.709771707</v>
       </c>
       <c r="K2" t="n">
         <v>176743.7097717069</v>
       </c>
       <c r="L2" t="n">
-        <v>176743.7097717069</v>
+        <v>176743.7097717068</v>
       </c>
       <c r="M2" t="n">
         <v>176743.7097717071</v>
       </c>
       <c r="N2" t="n">
+        <v>176743.7097717072</v>
+      </c>
+      <c r="O2" t="n">
         <v>176743.7097717071</v>
       </c>
-      <c r="O2" t="n">
-        <v>176743.709771707</v>
-      </c>
       <c r="P2" t="n">
-        <v>176743.7097717071</v>
+        <v>176743.7097717072</v>
       </c>
     </row>
     <row r="3">
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>160763.5855583198</v>
+        <v>160763.5855583199</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>104848.2026895066</v>
+        <v>104848.2026895067</v>
       </c>
       <c r="M3" t="n">
-        <v>19259.37825850242</v>
+        <v>19259.37825850231</v>
       </c>
       <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>65423.24367203555</v>
+        <v>65423.2436720356</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,7 +26436,7 @@
         <v>442672.8937875656</v>
       </c>
       <c r="I4" t="n">
-        <v>442672.8937875655</v>
+        <v>442672.8937875656</v>
       </c>
       <c r="J4" t="n">
         <v>442256.8076974518</v>
@@ -26457,7 +26457,7 @@
         <v>441867.4728269802</v>
       </c>
       <c r="P4" t="n">
-        <v>441867.4728269802</v>
+        <v>441867.4728269803</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>35675.68646773272</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.53836228576</v>
+        <v>47598.53836228577</v>
       </c>
       <c r="K5" t="n">
         <v>47598.53836228576</v>
       </c>
       <c r="L5" t="n">
-        <v>47598.53836228576</v>
+        <v>47598.53836228577</v>
       </c>
       <c r="M5" t="n">
         <v>44343.67435035105</v>
       </c>
       <c r="N5" t="n">
-        <v>44343.67435035105</v>
+        <v>44343.67435035106</v>
       </c>
       <c r="O5" t="n">
-        <v>44343.67435035105</v>
+        <v>44343.67435035106</v>
       </c>
       <c r="P5" t="n">
-        <v>44343.67435035105</v>
+        <v>44343.67435035106</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-335071.8644949833</v>
+        <v>-335076.3308791886</v>
       </c>
       <c r="C6" t="n">
-        <v>-335071.8644949833</v>
+        <v>-335076.3308791886</v>
       </c>
       <c r="D6" t="n">
-        <v>-335071.8644949833</v>
+        <v>-335076.3308791886</v>
       </c>
       <c r="E6" t="n">
-        <v>-517240.2982671593</v>
+        <v>-517549.6194167544</v>
       </c>
       <c r="F6" t="n">
-        <v>-244806.0916515868</v>
+        <v>-245115.4128011821</v>
       </c>
       <c r="G6" t="n">
-        <v>-406453.073173098</v>
+        <v>-406453.0731730979</v>
       </c>
       <c r="H6" t="n">
         <v>-301604.8704835913</v>
       </c>
       <c r="I6" t="n">
-        <v>-301604.8704835912</v>
+        <v>-301604.8704835913</v>
       </c>
       <c r="J6" t="n">
         <v>-473875.2218463505</v>
       </c>
       <c r="K6" t="n">
-        <v>-313111.6362880306</v>
+        <v>-313111.6362880307</v>
       </c>
       <c r="L6" t="n">
-        <v>-417959.8389775373</v>
+        <v>-417959.8389775374</v>
       </c>
       <c r="M6" t="n">
         <v>-328726.8156641265</v>
       </c>
       <c r="N6" t="n">
-        <v>-309467.4374056243</v>
+        <v>-309467.4374056241</v>
       </c>
       <c r="O6" t="n">
         <v>-374890.6810776598</v>
@@ -26707,25 +26707,25 @@
         <v>334.5492523845696</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="K2" t="n">
         <v>212.8393079519277</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="M2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="3">
@@ -26811,25 +26811,25 @@
         <v>86.82170806664899</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2112674919912</v>
+        <v>451.2112674919914</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2112674919912</v>
+        <v>451.2112674919914</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2112674919912</v>
+        <v>451.2112674919914</v>
       </c>
       <c r="M4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="N4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="O4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253424</v>
       </c>
     </row>
   </sheetData>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.77905459004444</v>
+        <v>81.7790545900445</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.0602533618833</v>
+        <v>131.0602533618834</v>
       </c>
       <c r="M2" t="n">
-        <v>24.07422282312803</v>
+        <v>24.07422282312788</v>
       </c>
       <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004444</v>
+        <v>81.7790545900445</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.3895594253422</v>
+        <v>364.3895594253424</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004444</v>
+        <v>81.7790545900445</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28120,7 +28120,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3.000426919520976</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>96.91387472383407</v>
+        <v>13.3372843008183</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.39403938744573</v>
+        <v>174.9710567299825</v>
       </c>
       <c r="R11" t="n">
         <v>203.4889990226863</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.92878633101674</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3144462547807</v>
+        <v>47.49273818813168</v>
       </c>
       <c r="S12" t="n">
         <v>191.4695228506099</v>
       </c>
       <c r="T12" t="n">
+        <v>138.6980495599736</v>
+      </c>
+      <c r="U12" t="n">
         <v>203.4889990226863</v>
-      </c>
-      <c r="U12" t="n">
-        <v>150.4059319079159</v>
       </c>
       <c r="V12" t="n">
         <v>203.4889990226863</v>
@@ -28232,7 +28232,7 @@
         <v>203.4889990226863</v>
       </c>
       <c r="X12" t="n">
-        <v>185.7450486478689</v>
+        <v>203.4889990226863</v>
       </c>
       <c r="Y12" t="n">
         <v>203.4889990226863</v>
@@ -28245,16 +28245,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>203.4889990226863</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>203.4889990226863</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>203.4889990226863</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28272,7 +28272,7 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K13" t="n">
-        <v>66.39406177691131</v>
+        <v>153.2157698435603</v>
       </c>
       <c r="L13" t="n">
         <v>118.1597677501405</v>
@@ -28281,10 +28281,10 @@
         <v>111.1805812651691</v>
       </c>
       <c r="N13" t="n">
-        <v>15.68256630572605</v>
+        <v>33.18634338877319</v>
       </c>
       <c r="O13" t="n">
-        <v>46.78359000751881</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P13" t="n">
         <v>57.81660688993938</v>
@@ -28360,19 +28360,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>8.555662490426641</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.573595315343816</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>13.3372843008183</v>
       </c>
       <c r="Q14" t="n">
-        <v>175.2157474540947</v>
+        <v>174.9710567299825</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1150504928036</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="S14" t="n">
         <v>203.4889990226864</v>
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>116.6911340347779</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28418,7 +28418,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>61.91636766865742</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H15" t="n">
         <v>125.6724707086533</v>
@@ -28448,16 +28448,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3144462547807</v>
+        <v>47.49273818813168</v>
       </c>
       <c r="S15" t="n">
         <v>191.4695228506099</v>
       </c>
       <c r="T15" t="n">
-        <v>203.4889990226864</v>
+        <v>138.6980495599735</v>
       </c>
       <c r="U15" t="n">
         <v>203.4889990226864</v>
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>203.4889990226864</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>203.4889990226864</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>203.4889990226864</v>
       </c>
       <c r="E16" t="n">
-        <v>167.0761786296243</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="G16" t="n">
         <v>203.4889990226864</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7757334795251</v>
+        <v>203.4889990226864</v>
       </c>
       <c r="I16" t="n">
-        <v>203.4889990226864</v>
+        <v>164.6883657250528</v>
       </c>
       <c r="J16" t="n">
-        <v>203.4889990226864</v>
+        <v>166.5053259882891</v>
       </c>
       <c r="K16" t="n">
         <v>66.39406177691131</v>
@@ -28582,7 +28582,7 @@
         <v>334.5492523845696</v>
       </c>
       <c r="I17" t="n">
-        <v>243.5349611711164</v>
+        <v>240.5393448550616</v>
       </c>
       <c r="J17" t="n">
         <v>75.74597459497528</v>
@@ -28597,7 +28597,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>8.555662490426641</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28618,10 +28618,10 @@
         <v>222.4124663777658</v>
       </c>
       <c r="U17" t="n">
+        <v>332.4310624156335</v>
+      </c>
+      <c r="V17" t="n">
         <v>334.5492523845696</v>
-      </c>
-      <c r="V17" t="n">
-        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>334.5492523845696</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.92878633101674</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7380757353064</v>
+        <v>61.91636766865741</v>
       </c>
       <c r="H18" t="n">
         <v>125.6724707086533</v>
@@ -28664,7 +28664,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85834769223185</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.49273818813168</v>
+        <v>134.3144462547807</v>
       </c>
       <c r="S18" t="n">
-        <v>104.6478147839609</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T18" t="n">
-        <v>138.4720477393532</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276399745649</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>153.8272128487532</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>179.8828755103626</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>204.8061413880282</v>
       </c>
     </row>
     <row r="19">
@@ -28819,7 +28819,7 @@
         <v>334.5492523845696</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5393448550616</v>
+        <v>322.8208419520635</v>
       </c>
       <c r="J20" t="n">
         <v>75.74597459497528</v>
@@ -28852,13 +28852,13 @@
         <v>227.2389374904774</v>
       </c>
       <c r="T20" t="n">
-        <v>233.9637451842473</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U20" t="n">
+        <v>250.1495653186316</v>
+      </c>
+      <c r="V20" t="n">
         <v>334.5492523845696</v>
-      </c>
-      <c r="V20" t="n">
-        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>334.5492523845696</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.92878633101674</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28895,13 +28895,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H21" t="n">
-        <v>125.6724707086533</v>
+        <v>107.0943259626559</v>
       </c>
       <c r="I21" t="n">
-        <v>107.1386269945785</v>
+        <v>20.31691892792954</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85834769223185</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,22 +28922,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>47.49273818813168</v>
       </c>
       <c r="S21" t="n">
-        <v>114.9969623855055</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9446082044576</v>
+        <v>128.1229001378086</v>
       </c>
       <c r="U21" t="n">
         <v>237.2276399745649</v>
       </c>
       <c r="V21" t="n">
-        <v>153.8272128487532</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -29077,25 +29077,25 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>100.1589923674673</v>
+        <v>13.3372843008183</v>
       </c>
       <c r="Q23" t="n">
         <v>88.39403938744573</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1150504928036</v>
+        <v>276.3965475898055</v>
       </c>
       <c r="S23" t="n">
         <v>227.2389374904774</v>
       </c>
       <c r="T23" t="n">
-        <v>231.5417241835363</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U23" t="n">
         <v>250.1495653186316</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>334.5492523845696</v>
       </c>
       <c r="W23" t="n">
         <v>334.5492523845696</v>
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>111.0455910592615</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29126,19 +29126,19 @@
         <v>85.00586377315068</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>72.00173105327934</v>
       </c>
       <c r="G24" t="n">
         <v>148.7380757353064</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6724707086533</v>
+        <v>101.0582579357808</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1386269945785</v>
+        <v>20.31691892792954</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85834769223185</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U24" t="n">
-        <v>150.4059319079159</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29180,7 +29180,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>130.4912063728216</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8393079519275</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="27">
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>139.3594048328796</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29360,7 +29360,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29369,13 +29369,13 @@
         <v>148.7380757353064</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6724707086533</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>107.1386269945785</v>
       </c>
       <c r="J27" t="n">
-        <v>51.85834769223185</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3144462547807</v>
@@ -29405,22 +29405,22 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8393079519277</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8393079519277</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8393079519277</v>
+        <v>187.187532975102</v>
       </c>
     </row>
     <row r="28">
@@ -29457,7 +29457,7 @@
         <v>119.8526328486804</v>
       </c>
       <c r="K28" t="n">
-        <v>127.3198600237094</v>
+        <v>66.39406177691131</v>
       </c>
       <c r="L28" t="n">
         <v>31.33805968349147</v>
@@ -29466,13 +29466,13 @@
         <v>24.35887319852014</v>
       </c>
       <c r="N28" t="n">
-        <v>15.68256630572605</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8393079519277</v>
+        <v>36.70523308254138</v>
       </c>
       <c r="P28" t="n">
-        <v>57.81660688993938</v>
+        <v>97.71973835992166</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7586570094679</v>
@@ -29481,25 +29481,25 @@
         <v>203.1838537831904</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="29">
@@ -29545,7 +29545,7 @@
         <v>212.8393079519277</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519281</v>
       </c>
       <c r="O29" t="n">
         <v>212.8393079519277</v>
@@ -29597,7 +29597,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29612,7 +29612,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85834769223185</v>
+        <v>7.848069391099791</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3144462547807</v>
@@ -29642,13 +29642,13 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>212.8393079519277</v>
-      </c>
-      <c r="U30" t="n">
-        <v>212.8393079519277</v>
-      </c>
-      <c r="V30" t="n">
-        <v>121.7812255117924</v>
       </c>
       <c r="W30" t="n">
         <v>212.8393079519277</v>
@@ -29657,7 +29657,7 @@
         <v>212.8393079519277</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29676,7 +29676,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>202.6019394590231</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29706,16 +29706,16 @@
         <v>15.68256630572605</v>
       </c>
       <c r="O31" t="n">
+        <v>36.70523308254138</v>
+      </c>
+      <c r="P31" t="n">
+        <v>163.9179876079673</v>
+      </c>
+      <c r="Q31" t="n">
         <v>212.8393079519277</v>
       </c>
-      <c r="P31" t="n">
-        <v>57.81660688993938</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>126.7586570094679</v>
-      </c>
       <c r="R31" t="n">
-        <v>203.1838537831904</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S31" t="n">
         <v>212.8393079519277</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8393079519275</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H33" t="n">
         <v>125.6724707086533</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3144462547807</v>
@@ -29879,22 +29879,22 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8393079519277</v>
+        <v>114.8131608187959</v>
       </c>
       <c r="W33" t="n">
-        <v>75.25817261625838</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8393079519277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29907,10 +29907,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29922,19 +29922,19 @@
         <v>168.6953014514208</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="I34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="J34" t="n">
-        <v>119.8526328486804</v>
+        <v>147.6592045844142</v>
       </c>
       <c r="K34" t="n">
         <v>66.39406177691131</v>
       </c>
       <c r="L34" t="n">
-        <v>173.1834161003983</v>
+        <v>31.33805968349147</v>
       </c>
       <c r="M34" t="n">
         <v>24.35887319852014</v>
@@ -29955,25 +29955,25 @@
         <v>203.1838537831904</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519278</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J35" t="n">
-        <v>75.74597459497528</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K35" t="n">
-        <v>236.9135307750558</v>
+        <v>5.175029699350112</v>
       </c>
       <c r="L35" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N35" t="n">
-        <v>236.9135307750558</v>
+        <v>120.9430150698748</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q35" t="n">
-        <v>107.6716148537899</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R35" t="n">
-        <v>194.1150504928036</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4124663777658</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="36">
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>123.3512781745015</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380757353064</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3144462547807</v>
@@ -30116,22 +30116,22 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>118.2264077953598</v>
       </c>
       <c r="V36" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30165,10 +30165,10 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8526328486804</v>
+        <v>235.4891886735575</v>
       </c>
       <c r="K37" t="n">
-        <v>182.0306176017882</v>
+        <v>66.39406177691131</v>
       </c>
       <c r="L37" t="n">
         <v>31.33805968349147</v>
@@ -30198,13 +30198,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L38" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>155.5792407506567</v>
+        <v>126.1180447692248</v>
       </c>
       <c r="N38" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P38" t="n">
-        <v>13.3372843008183</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R38" t="n">
-        <v>194.1150504928036</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="39">
@@ -30305,16 +30305,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>54.66808535327311</v>
       </c>
       <c r="H39" t="n">
         <v>125.6724707086533</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -30353,16 +30353,16 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T39" t="n">
-        <v>10.66683026960447</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U39" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W39" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30402,7 +30402,7 @@
         <v>164.6883657250528</v>
       </c>
       <c r="J40" t="n">
-        <v>201.7595116816918</v>
+        <v>119.8526328486804</v>
       </c>
       <c r="K40" t="n">
         <v>66.39406177691131</v>
@@ -30420,13 +30420,13 @@
         <v>36.70523308254138</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81660688993938</v>
+        <v>173.4531627148164</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7586570094679</v>
       </c>
       <c r="R40" t="n">
-        <v>236.9135307750558</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S40" t="n">
         <v>235.3426566118388</v>
@@ -30435,13 +30435,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K41" t="n">
-        <v>236.9135307750558</v>
+        <v>5.175029699350112</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N41" t="n">
-        <v>236.9135307750558</v>
+        <v>120.9430150698746</v>
       </c>
       <c r="O41" t="n">
-        <v>80.52248566402936</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.39403938744573</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R41" t="n">
-        <v>194.1150504928036</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="42">
@@ -30545,13 +30545,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H42" t="n">
         <v>125.6724707086533</v>
@@ -30560,7 +30560,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J42" t="n">
-        <v>51.85834769223185</v>
+        <v>18.75449298181811</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30587,22 +30587,22 @@
         <v>134.3144462547807</v>
       </c>
       <c r="S42" t="n">
-        <v>24.70487050077574</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T42" t="n">
         <v>214.9446082044576</v>
       </c>
       <c r="U42" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W42" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>210.0112330132945</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30657,34 +30657,34 @@
         <v>36.70523308254138</v>
       </c>
       <c r="P43" t="n">
-        <v>173.4531627148162</v>
+        <v>57.81660688993938</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7586570094679</v>
       </c>
       <c r="R43" t="n">
-        <v>203.1838537831904</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S43" t="n">
-        <v>235.3426566118388</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7381717812877</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X43" t="n">
-        <v>221.9194554082425</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L44" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>104.6981433458976</v>
+        <v>126.1180447692248</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.39403938744573</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R44" t="n">
-        <v>194.1150504928036</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2389374904774</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4124663777658</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="45">
@@ -30773,22 +30773,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>135.8842092852177</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>37.01901744860633</v>
+        <v>148.7380757353064</v>
       </c>
       <c r="H45" t="n">
         <v>125.6724707086533</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.036068026875153</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3144462547807</v>
@@ -30830,19 +30830,19 @@
         <v>214.9446082044576</v>
       </c>
       <c r="U45" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V45" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W45" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30858,13 +30858,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>236.9135307750558</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>159.326048480493</v>
       </c>
       <c r="G46" t="n">
         <v>168.6953014514208</v>
@@ -30873,7 +30873,7 @@
         <v>165.7757334795251</v>
       </c>
       <c r="I46" t="n">
-        <v>188.5940410255846</v>
+        <v>164.6883657250528</v>
       </c>
       <c r="J46" t="n">
         <v>119.8526328486804</v>
@@ -30909,13 +30909,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W46" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -35416,7 +35416,7 @@
         <v>49.11836494962073</v>
       </c>
       <c r="M11" t="n">
-        <v>86.82170806664899</v>
+        <v>83.82128114712802</v>
       </c>
       <c r="N11" t="n">
         <v>78.26604557622235</v>
@@ -35425,10 +35425,10 @@
         <v>36.62222692053273</v>
       </c>
       <c r="P11" t="n">
-        <v>83.57659042301577</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>86.57701734253675</v>
       </c>
       <c r="R11" t="n">
         <v>9.373948529882703</v>
@@ -35492,16 +35492,16 @@
         <v>39.40104218157286</v>
       </c>
       <c r="L12" t="n">
-        <v>86.82170806664899</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>45.01791191725205</v>
+        <v>45.01791191725206</v>
       </c>
       <c r="N12" t="n">
         <v>86.82170806664899</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="P12" t="n">
         <v>85.71651423380038</v>
@@ -35541,16 +35541,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>25.87207835771824</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.30634877197562</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>61.81285781046134</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="L13" t="n">
         <v>86.82170806664899</v>
@@ -35577,10 +35577,10 @@
         <v>86.82170806664899</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>17.50377708304714</v>
       </c>
       <c r="O13" t="n">
-        <v>10.07835692497743</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35656,19 +35656,19 @@
         <v>83.82128114712802</v>
       </c>
       <c r="N14" t="n">
-        <v>86.82170806664899</v>
+        <v>78.26604557622235</v>
       </c>
       <c r="O14" t="n">
-        <v>37.19582223587654</v>
+        <v>36.62222692053273</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.82170806664899</v>
+        <v>86.57701734253675</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.373948529882732</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.40104218157286</v>
       </c>
       <c r="L15" t="n">
-        <v>84.41895409882493</v>
+        <v>45.01791191725206</v>
       </c>
       <c r="M15" t="n">
         <v>86.82170806664899</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>86.82170806664899</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>85.71651423380038</v>
@@ -35778,31 +35778,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.87207835771827</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>37.03181805071401</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>58.30634877197565</v>
       </c>
       <c r="E16" t="n">
-        <v>25.4000374173993</v>
+        <v>61.81285781046137</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>64.56211680423971</v>
       </c>
       <c r="G16" t="n">
         <v>34.79369757126555</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>37.71326554316129</v>
       </c>
       <c r="I16" t="n">
-        <v>38.80063329763351</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83.63636617400597</v>
+        <v>46.65269313960872</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.995616316054864</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>83.82128114712802</v>
       </c>
       <c r="N17" t="n">
-        <v>86.82170806664899</v>
+        <v>78.26604557622235</v>
       </c>
       <c r="O17" t="n">
         <v>36.62222692053273</v>
@@ -35914,10 +35914,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>84.39968706593798</v>
+        <v>82.28149709700186</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>13.66946877541761</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.40104218157286</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>86.82170806664899</v>
       </c>
       <c r="M18" t="n">
-        <v>45.01791191725205</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="O18" t="n">
-        <v>86.82170806664899</v>
+        <v>83.31376026597634</v>
       </c>
       <c r="P18" t="n">
-        <v>85.71651423380038</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>82.28149709700187</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>11.55127880648149</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>84.39968706593798</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>13.66946877541761</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>39.40104218157286</v>
       </c>
       <c r="L21" t="n">
-        <v>86.82170806664899</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>43.91271808440343</v>
+        <v>45.01791191725206</v>
       </c>
       <c r="N21" t="n">
         <v>86.82170806664899</v>
@@ -36215,7 +36215,7 @@
         <v>86.82170806664899</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.71651423380038</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36373,25 +36373,25 @@
         <v>36.62222692053273</v>
       </c>
       <c r="P23" t="n">
-        <v>86.82170806664899</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>82.28149709700186</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>9.129257805770495</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>13.66946877541761</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.40104218157286</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>45.01791191725206</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="M24" t="n">
-        <v>86.82170806664899</v>
+        <v>83.3137602659763</v>
       </c>
       <c r="N24" t="n">
         <v>86.82170806664899</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>86.82170806664899</v>
       </c>
       <c r="P24" t="n">
-        <v>85.71651423380038</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>137.0933333569525</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6642782525776</v>
+        <v>207.6642782525777</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9576729015484</v>
+        <v>261.9576729015485</v>
       </c>
       <c r="M26" t="n">
         <v>296.6605890990558</v>
@@ -36607,16 +36607,16 @@
         <v>291.1053535281501</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4615348724603</v>
+        <v>249.4615348724605</v>
       </c>
       <c r="P26" t="n">
-        <v>199.5020236511094</v>
+        <v>199.5020236511095</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.445268564482</v>
+        <v>124.4452685644821</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72425745912411</v>
+        <v>18.72425745912417</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>60.92579824679807</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,13 +36762,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>197.1567416462017</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1340748693864</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>39.90313146998228</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0933333569525</v>
+        <v>137.0933333569524</v>
       </c>
       <c r="K29" t="n">
         <v>207.6642782525776</v>
@@ -36841,7 +36841,7 @@
         <v>296.6605890990558</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1053535281501</v>
+        <v>291.1053535281505</v>
       </c>
       <c r="O29" t="n">
         <v>249.4615348724604</v>
@@ -36853,7 +36853,7 @@
         <v>124.445268564482</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72425745912412</v>
+        <v>18.72425745912408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.22238728695962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>60.92579824679807</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.1340748693864</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>106.1013807180279</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.08065094245983</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.655454168737272</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>137.0933333569525</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6642782525776</v>
+        <v>207.6642782525777</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9576729015484</v>
+        <v>261.9576729015485</v>
       </c>
       <c r="M32" t="n">
         <v>296.6605890990558</v>
@@ -37081,16 +37081,16 @@
         <v>291.1053535281501</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4615348724604</v>
+        <v>249.4615348724605</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5020236511092</v>
+        <v>199.5020236511095</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.445268564482</v>
+        <v>124.4452685644821</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72425745912411</v>
+        <v>18.72425745912417</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.38212697995544</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.65665770121709</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,19 +37218,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06357447240267</v>
+        <v>47.06357447240273</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15094222687489</v>
+        <v>48.15094222687495</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>27.80657173573382</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>141.8453564169069</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>161.1675561800804</v>
       </c>
       <c r="K35" t="n">
-        <v>231.7385010757056</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>286.0318957246765</v>
+        <v>49.11836494962073</v>
       </c>
       <c r="M35" t="n">
-        <v>320.7348119221838</v>
+        <v>320.7348119221837</v>
       </c>
       <c r="N35" t="n">
-        <v>315.1795763512781</v>
+        <v>199.2090606460972</v>
       </c>
       <c r="O35" t="n">
-        <v>36.62222692053273</v>
+        <v>273.5357576955884</v>
       </c>
       <c r="P35" t="n">
-        <v>223.5762464742375</v>
+        <v>223.5762464742374</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.27757546634416</v>
+        <v>148.5194913876099</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.79848028225205</v>
       </c>
       <c r="S35" t="n">
-        <v>9.674593284578398</v>
+        <v>9.674593284578313</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>14.50106439728984</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>115.6365558248771</v>
       </c>
       <c r="K37" t="n">
-        <v>115.6365558248769</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>161.1675561800805</v>
+        <v>161.1675561800804</v>
       </c>
       <c r="K38" t="n">
-        <v>231.7385010757057</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L38" t="n">
-        <v>286.0318957246765</v>
+        <v>49.11836494962073</v>
       </c>
       <c r="M38" t="n">
-        <v>239.4005218977847</v>
+        <v>209.9393259163528</v>
       </c>
       <c r="N38" t="n">
-        <v>315.1795763512781</v>
+        <v>78.26604557622235</v>
       </c>
       <c r="O38" t="n">
-        <v>36.62222692053273</v>
+        <v>273.5357576955884</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>223.5762464742374</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.5194913876101</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.79848028225208</v>
       </c>
       <c r="S38" t="n">
-        <v>9.674593284578426</v>
+        <v>9.674593284578341</v>
       </c>
       <c r="T38" t="n">
-        <v>14.50106439728996</v>
+        <v>14.50106439728987</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.90687883301145</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37716,13 +37716,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>115.6365558248771</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>33.72967699186535</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>161.1675561800805</v>
+        <v>161.1675561800804</v>
       </c>
       <c r="K41" t="n">
-        <v>231.7385010757057</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>49.11836494962073</v>
       </c>
       <c r="M41" t="n">
-        <v>320.7348119221838</v>
+        <v>320.7348119221837</v>
       </c>
       <c r="N41" t="n">
-        <v>315.1795763512781</v>
+        <v>199.2090606460969</v>
       </c>
       <c r="O41" t="n">
-        <v>117.1447125845621</v>
+        <v>273.5357576955884</v>
       </c>
       <c r="P41" t="n">
-        <v>223.5762464742375</v>
+        <v>223.5762464742374</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.79848028225208</v>
       </c>
       <c r="S41" t="n">
-        <v>9.674593284578426</v>
+        <v>9.674593284578341</v>
       </c>
       <c r="T41" t="n">
-        <v>14.50106439728996</v>
+        <v>14.50106439728987</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>32.39431234832642</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37953,19 +37953,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>115.6365558248768</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>33.72967699186527</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.570874163216941</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>13.17535899376798</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37977,10 +37977,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>14.99407536681318</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>19.77225796088729</v>
       </c>
     </row>
     <row r="44">
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>161.1675561800805</v>
+        <v>161.1675561800804</v>
       </c>
       <c r="K44" t="n">
-        <v>231.7385010757057</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L44" t="n">
-        <v>286.0318957246765</v>
+        <v>49.11836494962073</v>
       </c>
       <c r="M44" t="n">
-        <v>188.5194244930256</v>
+        <v>209.9393259163528</v>
       </c>
       <c r="N44" t="n">
         <v>78.26604557622235</v>
       </c>
       <c r="O44" t="n">
-        <v>273.5357576955885</v>
+        <v>273.5357576955884</v>
       </c>
       <c r="P44" t="n">
-        <v>223.5762464742375</v>
+        <v>223.5762464742374</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.79848028225208</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.674593284578341</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>14.50106439728987</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38154,13 +38154,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>91.73088052434508</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>95.23738956283071</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>20.39916626204636</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.90567530053172</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
